--- a/test_files/Codelist_with_defaultcode.xlsx
+++ b/test_files/Codelist_with_defaultcode.xlsx
@@ -23,12 +23,18 @@
     <t>ID</t>
   </si>
   <si>
+    <t>ORGANIZATION</t>
+  </si>
+  <si>
     <t>STATUS</t>
   </si>
   <si>
     <t>PREFLABEL_FI</t>
   </si>
   <si>
+    <t>INFORMATIONDOMAIN</t>
+  </si>
+  <si>
     <t>SHORTNAME</t>
   </si>
   <si>
@@ -38,9 +44,6 @@
     <t>STARTDATE</t>
   </si>
   <si>
-    <t>ORGANIZATION</t>
-  </si>
-  <si>
     <t>ENDDATE</t>
   </si>
   <si>
@@ -68,61 +71,58 @@
     <t>koodi503</t>
   </si>
   <si>
+    <t>VERSION</t>
+  </si>
+  <si>
     <t>Koodi503</t>
   </si>
   <si>
+    <t>DEFAULTCODE</t>
+  </si>
+  <si>
     <t>koodi504</t>
   </si>
   <si>
+    <t>PREFLABEL_SV</t>
+  </si>
+  <si>
+    <t>PREFLABEL_EN</t>
+  </si>
+  <si>
     <t>Koodi504</t>
   </si>
   <si>
-    <t>CLASSIFICATION</t>
+    <t>DEFINITION_FI</t>
+  </si>
+  <si>
+    <t>DEFINITION_SV</t>
+  </si>
+  <si>
+    <t>DEFINITION_EN</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_FI</t>
   </si>
   <si>
     <t>koodi505</t>
   </si>
   <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>DEFAULTCODE</t>
+    <t>DESCRIPTION_SV</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_EN</t>
+  </si>
+  <si>
+    <t>CHANGENOTE_FI</t>
+  </si>
+  <si>
+    <t>CHANGENOTE_SV</t>
+  </si>
+  <si>
+    <t>CHANGENOTE_EN</t>
   </si>
   <si>
     <t>Koodi505</t>
-  </si>
-  <si>
-    <t>PREFLABEL_SV</t>
-  </si>
-  <si>
-    <t>PREFLABEL_EN</t>
-  </si>
-  <si>
-    <t>DEFINITION_FI</t>
-  </si>
-  <si>
-    <t>DEFINITION_SV</t>
-  </si>
-  <si>
-    <t>DEFINITION_EN</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_FI</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_SV</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_EN</t>
-  </si>
-  <si>
-    <t>CHANGENOTE_FI</t>
-  </si>
-  <si>
-    <t>CHANGENOTE_SV</t>
-  </si>
-  <si>
-    <t>CHANGENOTE_EN</t>
   </si>
   <si>
     <t>SOURCE</t>
@@ -248,62 +248,62 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>37</v>
@@ -322,7 +322,7 @@
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -332,10 +332,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>44</v>
@@ -1395,35 +1395,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1432,17 +1432,17 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1451,17 +1451,17 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1470,15 +1470,15 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1487,15 +1487,15 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1504,17 +1504,17 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
